--- a/AP-N1通信协议.xlsx
+++ b/AP-N1通信协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16095" windowHeight="26670"/>
+    <workbookView windowWidth="28695" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>AP-N1串口通信协议</t>
   </si>
@@ -102,6 +102,15 @@
     <t>设置RP参数</t>
   </si>
   <si>
+    <t>获取GPRS状态</t>
+  </si>
+  <si>
+    <t>升级sensor固件</t>
+  </si>
+  <si>
+    <t>升级rp固件</t>
+  </si>
+  <si>
     <t>RF转发数据</t>
   </si>
   <si>
@@ -115,6 +124,30 @@
   </si>
   <si>
     <t>GPRS状态</t>
+  </si>
+  <si>
+    <t>ati_ok</t>
+  </si>
+  <si>
+    <t>creg_ok</t>
+  </si>
+  <si>
+    <t>cgreg_ok</t>
+  </si>
+  <si>
+    <t>csq</t>
+  </si>
+  <si>
+    <t>connect_ok</t>
+  </si>
+  <si>
+    <t>AP固件</t>
+  </si>
+  <si>
+    <t>RP固件</t>
+  </si>
+  <si>
+    <t>sensor固件</t>
   </si>
   <si>
     <t>2017-7-7  上传 基本协议 待完善</t>
@@ -125,10 +158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -168,6 +201,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -178,106 +310,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,12 +331,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -311,174 +512,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,15 +540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -527,6 +551,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,19 +608,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,30 +637,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -612,145 +645,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1118,10 +1151,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1378,12 +1411,36 @@
         <v>27</v>
       </c>
     </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3">
         <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C29" s="3"/>
     </row>
@@ -1392,7 +1449,7 @@
         <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1400,7 +1457,7 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1408,20 +1465,59 @@
         <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/AP-N1通信协议.xlsx
+++ b/AP-N1通信协议.xlsx
@@ -45,10 +45,10 @@
     <t>0x55</t>
   </si>
   <si>
+    <t>0x01</t>
+  </si>
+  <si>
     <t>0x00</t>
-  </si>
-  <si>
-    <t>0x01</t>
   </si>
   <si>
     <t>0-N</t>
@@ -160,8 +160,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -181,6 +181,67 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,63 +262,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,40 +286,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,187 +331,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,6 +540,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -555,41 +564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -601,15 +575,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,6 +602,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -645,10 +645,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,133 +657,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,7 +1154,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1232,25 +1232,25 @@
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="7:7">
@@ -1341,10 +1341,10 @@
       </c>
       <c r="C16" s="3"/>
       <c r="E16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>11</v>
@@ -1386,7 +1386,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:7">
       <c r="A19" s="3">
         <v>9</v>
       </c>
@@ -1394,13 +1394,31 @@
         <v>25</v>
       </c>
       <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="E19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2">
